--- a/Code/Results/Cases/Case_2_228/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_228/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.62381989851858</v>
+        <v>12.76897566830924</v>
       </c>
       <c r="C2">
-        <v>15.25305290248291</v>
+        <v>9.537320396298803</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.15773480308434</v>
+        <v>16.59684130730611</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>2.040433986906075</v>
+        <v>3.587848220631106</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.90093542816715</v>
+        <v>15.64338581878584</v>
       </c>
       <c r="O2">
-        <v>13.65164603692799</v>
+        <v>17.34247579314394</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.1894618114889</v>
+        <v>12.11104542143275</v>
       </c>
       <c r="C3">
-        <v>14.34578924252694</v>
+        <v>9.081252429610522</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.94988068975685</v>
+        <v>15.64805768746366</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.047024035050044</v>
+        <v>3.590195443916796</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.02529381542948</v>
+        <v>15.6884780989058</v>
       </c>
       <c r="O3">
-        <v>13.22632849649751</v>
+        <v>17.36110750465393</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.2593060703144</v>
+        <v>11.68951418586693</v>
       </c>
       <c r="C4">
-        <v>13.76053919480534</v>
+        <v>8.787574105092807</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.53188762832798</v>
+        <v>15.04018611962935</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.05116644276112</v>
+        <v>3.591710366459565</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.10553251047264</v>
+        <v>15.71809437605997</v>
       </c>
       <c r="O4">
-        <v>12.98222252127582</v>
+        <v>17.37927634299976</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.86774025796209</v>
+        <v>11.51351587009322</v>
       </c>
       <c r="C5">
-        <v>13.5149903228775</v>
+        <v>8.664553395964875</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.93798430064474</v>
+        <v>14.7863748430015</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>2.052879993914648</v>
+        <v>3.592346313254914</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.1391918558071</v>
+        <v>15.73064921077255</v>
       </c>
       <c r="O5">
-        <v>12.88701094529589</v>
+        <v>17.38836228303665</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.80196264271281</v>
+        <v>11.48404291528813</v>
       </c>
       <c r="C6">
-        <v>13.47379248611014</v>
+        <v>8.643926792335527</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.83838657852914</v>
+        <v>14.74387017892447</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>2.053166103991854</v>
+        <v>3.592453037301031</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.14483863594768</v>
+        <v>15.73276330594268</v>
       </c>
       <c r="O6">
-        <v>12.87145769892312</v>
+        <v>17.3899722662108</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.25407607263195</v>
+        <v>11.68715741913445</v>
       </c>
       <c r="C7">
-        <v>13.75725613952684</v>
+        <v>8.785928418176805</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.5239435467817</v>
+        <v>15.03678743350894</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>2.051189447436396</v>
+        <v>3.591718867647647</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.1059825775244</v>
+        <v>15.71826172627959</v>
       </c>
       <c r="O7">
-        <v>12.98092124155872</v>
+        <v>17.37939208316044</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.13946325433301</v>
+        <v>12.54587224923445</v>
       </c>
       <c r="C8">
-        <v>14.94609071742895</v>
+        <v>9.382949614761849</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.40917342233539</v>
+        <v>16.27509916102409</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>2.042687119876802</v>
+        <v>3.588642283237226</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.94299899111504</v>
+        <v>15.65853365247261</v>
       </c>
       <c r="O8">
-        <v>13.50145109186372</v>
+        <v>17.3474977712793</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.44869031451314</v>
+        <v>14.08352936343509</v>
       </c>
       <c r="C9">
-        <v>17.05353628753408</v>
+        <v>10.44224920256632</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>34.59094316868937</v>
+        <v>18.61230523208208</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.026711062046143</v>
+        <v>3.58319098417941</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.65495632930815</v>
+        <v>15.55668173022232</v>
       </c>
       <c r="O9">
-        <v>14.65789912375328</v>
+        <v>17.33873171835045</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.65035489895429</v>
+        <v>15.1166342144309</v>
       </c>
       <c r="C10">
-        <v>18.46673116482279</v>
+        <v>11.14922407546826</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>38.13654520618523</v>
+        <v>20.27011379949129</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.015297246799472</v>
+        <v>3.579536366941249</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.46380231228601</v>
+        <v>15.49111668379668</v>
       </c>
       <c r="O10">
-        <v>15.59096924535268</v>
+        <v>17.36551421883125</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.6038383304277</v>
+        <v>15.56451497910484</v>
       </c>
       <c r="C11">
-        <v>19.08097540403763</v>
+        <v>11.45486247260045</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39.70012613820827</v>
+        <v>20.98188396516603</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.010149492773331</v>
+        <v>3.577948971229186</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.38161210522038</v>
+        <v>15.46329202346979</v>
       </c>
       <c r="O11">
-        <v>16.13090990611558</v>
+        <v>17.3849752494006</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.95814791496739</v>
+        <v>15.73086902116164</v>
       </c>
       <c r="C12">
-        <v>19.30953813406916</v>
+        <v>11.56827203598241</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>40.28582628724606</v>
+        <v>21.24535682753281</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.008204135966809</v>
+        <v>3.577358596472203</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.35120630701403</v>
+        <v>15.45304264733416</v>
       </c>
       <c r="O12">
-        <v>16.37860787210917</v>
+        <v>17.39339379658174</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.88213868932485</v>
+        <v>15.69518720008428</v>
       </c>
       <c r="C13">
-        <v>19.26049121076755</v>
+        <v>11.54395129589157</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>40.15995748657477</v>
+        <v>21.18888216404071</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.008622967629652</v>
+        <v>3.57748526768191</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.35772225373474</v>
+        <v>15.45523726825859</v>
       </c>
       <c r="O13">
-        <v>16.32531020748268</v>
+        <v>17.39153402979908</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.63312198592015</v>
+        <v>15.57826650243537</v>
       </c>
       <c r="C14">
-        <v>19.09985981314627</v>
+        <v>11.46423958811125</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>39.74843583966614</v>
+        <v>21.00368127192777</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.009989382065081</v>
+        <v>3.57790018590575</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.37909601507469</v>
+        <v>15.46244304791057</v>
       </c>
       <c r="O14">
-        <v>16.15131029357189</v>
+        <v>17.38564681420479</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.47971748475326</v>
+        <v>15.50622420164077</v>
       </c>
       <c r="C15">
-        <v>19.00094519530111</v>
+        <v>11.41510969155367</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>39.49555664207758</v>
+        <v>20.8894523295609</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.010826792949109</v>
+        <v>3.578155731781803</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.39228257696871</v>
+        <v>15.46689418440839</v>
       </c>
       <c r="O15">
-        <v>16.04458520776712</v>
+        <v>17.38217739465972</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.58708842791184</v>
+        <v>15.08691319040562</v>
       </c>
       <c r="C16">
-        <v>18.42601907721166</v>
+        <v>11.12892560243004</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>38.03342656360633</v>
+        <v>20.22274819724026</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.015634360040092</v>
+        <v>3.579641612965719</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.46927223289573</v>
+        <v>15.49297531241566</v>
       </c>
       <c r="O16">
-        <v>15.56239802410377</v>
+        <v>17.36438909402902</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.02728584945272</v>
+        <v>14.8239665555373</v>
       </c>
       <c r="C17">
-        <v>18.06603836893693</v>
+        <v>10.94924552951344</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>37.12429164625829</v>
+        <v>19.80291807321376</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>2.018593409558035</v>
+        <v>3.580572345062716</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.51774556906593</v>
+        <v>15.50948739605547</v>
       </c>
       <c r="O17">
-        <v>15.3140763755046</v>
+        <v>17.3553428383283</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.70076771772847</v>
+        <v>14.67065131749664</v>
       </c>
       <c r="C18">
-        <v>17.85628679836314</v>
+        <v>10.84439680747078</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>36.59669108114771</v>
+        <v>19.55745228195862</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>2.020299720354255</v>
+        <v>3.581114750812171</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.5460726432091</v>
+        <v>15.51917310452279</v>
       </c>
       <c r="O18">
-        <v>15.17298274539091</v>
+        <v>17.35082461433328</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.58943095090665</v>
+        <v>14.618387447687</v>
       </c>
       <c r="C19">
-        <v>17.78480269694025</v>
+        <v>10.80864006361052</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.41722920608368</v>
+        <v>19.47365533882092</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>2.020878262523835</v>
+        <v>3.581299616838757</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.55573946690792</v>
+        <v>15.52248489316705</v>
       </c>
       <c r="O19">
-        <v>15.12550763794152</v>
+        <v>17.34941235623403</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.08734600347893</v>
+        <v>14.85217303348754</v>
       </c>
       <c r="C20">
-        <v>18.10463788503625</v>
+        <v>10.9685284388476</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.22155125353186</v>
+        <v>19.84802246830078</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636157</v>
       </c>
       <c r="G20">
-        <v>2.018277980616876</v>
+        <v>3.580472535445364</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.51253906734242</v>
+        <v>15.50771016258287</v>
       </c>
       <c r="O20">
-        <v>15.34033085104404</v>
+        <v>17.35623491517175</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.70644618328624</v>
+        <v>15.61269762530137</v>
       </c>
       <c r="C21">
-        <v>19.14715002604766</v>
+        <v>11.48771628793614</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>39.86947720394849</v>
+        <v>21.05824343065326</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.009587945513029</v>
+        <v>3.577778023451537</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.37279826264077</v>
+        <v>15.46031874499638</v>
       </c>
       <c r="O21">
-        <v>16.20244821330202</v>
+        <v>17.38734754786756</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.72534100253934</v>
+        <v>16.09078432504456</v>
       </c>
       <c r="C22">
-        <v>19.80500442627365</v>
+        <v>11.81344925662002</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>41.56317769938836</v>
+        <v>21.81389183654739</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.003930395281301</v>
+        <v>3.576079561763328</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.28567175586896</v>
+        <v>15.43101960654408</v>
       </c>
       <c r="O22">
-        <v>16.92143999479352</v>
+        <v>17.41379634021822</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.1850750841514</v>
+        <v>15.83737585018724</v>
       </c>
       <c r="C23">
-        <v>19.45601334698807</v>
+        <v>11.6408517663722</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>40.66233467092875</v>
+        <v>21.41380677073271</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.00694880925528</v>
+        <v>3.576980359407296</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.33177653180794</v>
+        <v>15.44650412300298</v>
       </c>
       <c r="O23">
-        <v>16.53824752212877</v>
+        <v>17.39912017213986</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.06020739723617</v>
+        <v>14.83942755630603</v>
       </c>
       <c r="C24">
-        <v>18.0871957517238</v>
+        <v>10.95981545550569</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.17759558246082</v>
+        <v>19.82764354440775</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.018420569935131</v>
+        <v>3.580517636581177</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.51489149916242</v>
+        <v>15.50851304956599</v>
       </c>
       <c r="O24">
-        <v>15.32845600509398</v>
+        <v>17.35582948122456</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.59432688039293</v>
+        <v>13.68407209767969</v>
       </c>
       <c r="C25">
-        <v>16.50731993306574</v>
+        <v>10.16800024461144</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.23732032639285</v>
+        <v>17.96399569146369</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.030968209127196</v>
+        <v>3.584603854317471</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.72938386827911</v>
+        <v>15.5826049962866</v>
       </c>
       <c r="O25">
-        <v>14.33046130822263</v>
+        <v>17.33529485086052</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_228/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_228/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.76897566830924</v>
+        <v>21.62381989851873</v>
       </c>
       <c r="C2">
-        <v>9.537320396298803</v>
+        <v>15.25305290248285</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.59684130730611</v>
+        <v>30.1577348030844</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.587848220631106</v>
+        <v>2.040433986906075</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.64338581878584</v>
+        <v>10.90093542816712</v>
       </c>
       <c r="O2">
-        <v>17.34247579314394</v>
+        <v>13.65164603692795</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.11104542143275</v>
+        <v>20.18946181148884</v>
       </c>
       <c r="C3">
-        <v>9.081252429610522</v>
+        <v>14.34578924252702</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.64805768746366</v>
+        <v>27.94988068975682</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.590195443916796</v>
+        <v>2.047024035050178</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.6884780989058</v>
+        <v>11.02529381542949</v>
       </c>
       <c r="O3">
-        <v>17.36110750465393</v>
+        <v>13.22632849649747</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.68951418586693</v>
+        <v>19.25930607031444</v>
       </c>
       <c r="C4">
-        <v>8.787574105092807</v>
+        <v>13.76053919480542</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.04018611962935</v>
+        <v>26.53188762832796</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.591710366459565</v>
+        <v>2.051166442761254</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.71809437605997</v>
+        <v>11.10553251047261</v>
       </c>
       <c r="O4">
-        <v>17.37927634299976</v>
+        <v>12.98222252127574</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.51351587009322</v>
+        <v>18.86774025796212</v>
       </c>
       <c r="C5">
-        <v>8.664553395964875</v>
+        <v>13.5149903228774</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.7863748430015</v>
+        <v>25.93798430064479</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.592346313254914</v>
+        <v>2.05287999391438</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.73064921077255</v>
+        <v>11.13919185580701</v>
       </c>
       <c r="O5">
-        <v>17.38836228303665</v>
+        <v>12.8870109452958</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.48404291528813</v>
+        <v>18.80196264271284</v>
       </c>
       <c r="C6">
-        <v>8.643926792335527</v>
+        <v>13.47379248611006</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.74387017892447</v>
+        <v>25.8383865785292</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.592453037301031</v>
+        <v>2.053166103991586</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.73276330594268</v>
+        <v>11.14483863594769</v>
       </c>
       <c r="O6">
-        <v>17.3899722662108</v>
+        <v>12.87145769892312</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.68715741913445</v>
+        <v>19.254076072632</v>
       </c>
       <c r="C7">
-        <v>8.785928418176805</v>
+        <v>13.7572561395268</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.03678743350894</v>
+        <v>26.52394354678175</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.591718867647647</v>
+        <v>2.051189447436397</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.71826172627959</v>
+        <v>11.10598257752437</v>
       </c>
       <c r="O7">
-        <v>17.37939208316044</v>
+        <v>12.98092124155867</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.54587224923445</v>
+        <v>21.13946325433297</v>
       </c>
       <c r="C8">
-        <v>9.382949614761849</v>
+        <v>14.9460907174289</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.27509916102409</v>
+        <v>29.40917342233542</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.588642283237226</v>
+        <v>2.042687119876801</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.65853365247261</v>
+        <v>10.94299899111508</v>
       </c>
       <c r="O8">
-        <v>17.3474977712793</v>
+        <v>13.50145109186373</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.08352936343509</v>
+        <v>24.4486903145131</v>
       </c>
       <c r="C9">
-        <v>10.44224920256632</v>
+        <v>17.05353628753409</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.61230523208208</v>
+        <v>34.59094316868944</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.58319098417941</v>
+        <v>2.026711062046143</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.55668173022232</v>
+        <v>10.65495632930812</v>
       </c>
       <c r="O9">
-        <v>17.33873171835045</v>
+        <v>14.65789912375328</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.1166342144309</v>
+        <v>26.65035489895437</v>
       </c>
       <c r="C10">
-        <v>11.14922407546826</v>
+        <v>18.46673116482278</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.27011379949129</v>
+        <v>38.13654520618518</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.579536366941249</v>
+        <v>2.015297246799336</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.49111668379668</v>
+        <v>10.46380231228598</v>
       </c>
       <c r="O10">
-        <v>17.36551421883125</v>
+        <v>15.59096924535268</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.56451497910484</v>
+        <v>27.60383833042767</v>
       </c>
       <c r="C11">
-        <v>11.45486247260045</v>
+        <v>19.08097540403763</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.98188396516603</v>
+        <v>39.70012613820827</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.577948971229186</v>
+        <v>2.010149492773063</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.46329202346979</v>
+        <v>10.38161210522036</v>
       </c>
       <c r="O11">
-        <v>17.3849752494006</v>
+        <v>16.13090990611558</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.73086902116164</v>
+        <v>27.95814791496745</v>
       </c>
       <c r="C12">
-        <v>11.56827203598241</v>
+        <v>19.30953813406925</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.24535682753281</v>
+        <v>40.28582628724606</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.577358596472203</v>
+        <v>2.00820413596694</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.45304264733416</v>
+        <v>10.35120630701389</v>
       </c>
       <c r="O12">
-        <v>17.39339379658174</v>
+        <v>16.37860787210927</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.69518720008428</v>
+        <v>27.88213868932476</v>
       </c>
       <c r="C13">
-        <v>11.54395129589157</v>
+        <v>19.26049121076769</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.18888216404071</v>
+        <v>40.15995748657472</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.57748526768191</v>
+        <v>2.008622967629785</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.45523726825859</v>
+        <v>10.35772225373476</v>
       </c>
       <c r="O13">
-        <v>17.39153402979908</v>
+        <v>16.32531020748263</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.57826650243537</v>
+        <v>27.63312198592012</v>
       </c>
       <c r="C14">
-        <v>11.46423958811125</v>
+        <v>19.09985981314616</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.00368127192777</v>
+        <v>39.74843583966607</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.57790018590575</v>
+        <v>2.009989382065216</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.46244304791057</v>
+        <v>10.37909601507469</v>
       </c>
       <c r="O14">
-        <v>17.38564681420479</v>
+        <v>16.15131029357184</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.50622420164077</v>
+        <v>27.47971748475329</v>
       </c>
       <c r="C15">
-        <v>11.41510969155367</v>
+        <v>19.00094519530095</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.8894523295609</v>
+        <v>39.49555664207768</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>3.578155731781803</v>
+        <v>2.010826792949241</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.46689418440839</v>
+        <v>10.39228257696874</v>
       </c>
       <c r="O15">
-        <v>17.38217739465972</v>
+        <v>16.04458520776711</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.08691319040562</v>
+        <v>26.58708842791187</v>
       </c>
       <c r="C16">
-        <v>11.12892560243004</v>
+        <v>18.42601907721167</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.22274819724026</v>
+        <v>38.03342656360632</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>3.579641612965719</v>
+        <v>2.015634360040092</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.49297531241566</v>
+        <v>10.46927223289569</v>
       </c>
       <c r="O16">
-        <v>17.36438909402902</v>
+        <v>15.56239802410377</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.8239665555373</v>
+        <v>26.02728584945272</v>
       </c>
       <c r="C17">
-        <v>10.94924552951344</v>
+        <v>18.06603836893687</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.80291807321376</v>
+        <v>37.12429164625826</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.580572345062716</v>
+        <v>2.018593409558035</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.50948739605547</v>
+        <v>10.51774556906593</v>
       </c>
       <c r="O17">
-        <v>17.3553428383283</v>
+        <v>15.3140763755046</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.67065131749664</v>
+        <v>25.70076771772859</v>
       </c>
       <c r="C18">
-        <v>10.84439680747078</v>
+        <v>17.85628679836315</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.55745228195862</v>
+        <v>36.59669108114782</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>3.581114750812171</v>
+        <v>2.020299720354121</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.51917310452279</v>
+        <v>10.54607264320907</v>
       </c>
       <c r="O18">
-        <v>17.35082461433328</v>
+        <v>15.17298274539088</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.618387447687</v>
+        <v>25.58943095090673</v>
       </c>
       <c r="C19">
-        <v>10.80864006361052</v>
+        <v>17.78480269694008</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.47365533882092</v>
+        <v>36.4172292060838</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>3.581299616838757</v>
+        <v>2.020878262523969</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.52248489316705</v>
+        <v>10.55573946690788</v>
       </c>
       <c r="O19">
-        <v>17.34941235623403</v>
+        <v>15.12550763794153</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.85217303348754</v>
+        <v>26.08734600347898</v>
       </c>
       <c r="C20">
-        <v>10.9685284388476</v>
+        <v>18.10463788503625</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.84802246830078</v>
+        <v>37.22155125353179</v>
       </c>
       <c r="F20">
-        <v>20.24955283636157</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.580472535445364</v>
+        <v>2.018277980616874</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.50771016258287</v>
+        <v>10.51253906734236</v>
       </c>
       <c r="O20">
-        <v>17.35623491517175</v>
+        <v>15.34033085104402</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.61269762530137</v>
+        <v>27.70644618328631</v>
       </c>
       <c r="C21">
-        <v>11.48771628793614</v>
+        <v>19.14715002604755</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.05824343065326</v>
+        <v>39.86947720394846</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.577778023451537</v>
+        <v>2.009587945512896</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.46031874499638</v>
+        <v>10.37279826264074</v>
       </c>
       <c r="O21">
-        <v>17.38734754786756</v>
+        <v>16.20244821330204</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.09078432504456</v>
+        <v>28.72534100253928</v>
       </c>
       <c r="C22">
-        <v>11.81344925662002</v>
+        <v>19.80500442627365</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.81389183654739</v>
+        <v>41.56317769938835</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.576079561763328</v>
+        <v>2.003930395281301</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.43101960654408</v>
+        <v>10.28567175586899</v>
       </c>
       <c r="O22">
-        <v>17.41379634021822</v>
+        <v>16.92143999479345</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.83737585018724</v>
+        <v>28.18507508415138</v>
       </c>
       <c r="C23">
-        <v>11.6408517663722</v>
+        <v>19.456013346988</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.41380677073271</v>
+        <v>40.66233467092882</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.576980359407296</v>
+        <v>2.006948809255012</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.44650412300298</v>
+        <v>10.33177653180795</v>
       </c>
       <c r="O23">
-        <v>17.39912017213986</v>
+        <v>16.53824752212876</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.83942755630603</v>
+        <v>26.0602073972362</v>
       </c>
       <c r="C24">
-        <v>10.95981545550569</v>
+        <v>18.08719575172389</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.82764354440775</v>
+        <v>37.17759558246091</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.580517636581177</v>
+        <v>2.01842056993513</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.50851304956599</v>
+        <v>10.51489149916239</v>
       </c>
       <c r="O24">
-        <v>17.35582948122456</v>
+        <v>15.32845600509397</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.68407209767969</v>
+        <v>23.59432688039299</v>
       </c>
       <c r="C25">
-        <v>10.16800024461144</v>
+        <v>16.50731993306565</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.96399569146369</v>
+        <v>33.2373203263929</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.584603854317471</v>
+        <v>2.030968209127196</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.5826049962866</v>
+        <v>10.72938386827911</v>
       </c>
       <c r="O25">
-        <v>17.33529485086052</v>
+        <v>14.33046130822262</v>
       </c>
     </row>
   </sheetData>
